--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Fall.111920-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Fall.111920-1.xlsx_with_dialog_acts.xlsx
@@ -769,12 +769,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1357,12 +1357,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2953,12 +2953,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3927,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4305,12 +4305,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5191,12 +5191,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5741,12 +5741,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6411,12 +6411,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6579,12 +6579,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7041,12 +7041,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7377,12 +7377,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7717,12 +7717,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8393,12 +8393,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9147,12 +9147,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9817,12 +9817,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9901,12 +9901,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9985,12 +9985,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10027,12 +10027,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10069,12 +10069,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11331,12 +11331,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11541,12 +11541,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12333,12 +12333,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13457,12 +13457,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13577,12 +13577,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13937,12 +13937,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14697,12 +14697,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14777,12 +14777,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14817,12 +14817,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14857,12 +14857,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14937,12 +14937,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15057,12 +15057,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15901,12 +15901,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16381,12 +16381,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16661,12 +16661,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16901,12 +16901,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17065,12 +17065,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17545,12 +17545,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17585,12 +17585,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17625,12 +17625,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17665,12 +17665,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17705,12 +17705,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
